--- a/src/test/resources/org/nexial/core/variable/ExpressionProcessorTest9.xlsx
+++ b/src/test/resources/org/nexial/core/variable/ExpressionProcessorTest9.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/sentry-core/src/test/resources/com/ep/qa/sentry/variable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/variable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762C52AC-1A05-E44A-B676-32DC4EA058F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524A5C55-D0E1-DD46-A0B2-80924A9A82DB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="440" windowWidth="33600" windowHeight="10280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ipsSC1" sheetId="1" r:id="rId1"/>
-    <sheet name="ipsded" sheetId="5" r:id="rId2"/>
-    <sheet name="ipsTC1" sheetId="2" r:id="rId3"/>
-    <sheet name="Clients" sheetId="6" r:id="rId4"/>
-    <sheet name="laura" sheetId="7" r:id="rId5"/>
-    <sheet name="Test Case Covg" sheetId="8" r:id="rId6"/>
+    <sheet name="sc1" sheetId="1" r:id="rId1"/>
+    <sheet name="gpos1" sheetId="5" r:id="rId2"/>
+    <sheet name="tc17" sheetId="2" r:id="rId3"/>
+    <sheet name="list45" sheetId="6" r:id="rId4"/>
+    <sheet name="list46" sheetId="9" r:id="rId5"/>
+    <sheet name="rccTo_2355" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ipsTC1!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ipsSC1!$A$2:$AJ$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ipsTC1!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'tc17'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sc1'!$A$2:$AJ$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'tc17'!$A$1:$S$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="189">
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>tax id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -130,9 +124,6 @@
     <t>tax waiver</t>
   </si>
   <si>
-    <t>invoice no</t>
-  </si>
-  <si>
     <t>work date</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>class code</t>
   </si>
   <si>
-    <t>Laura's notes</t>
-  </si>
-  <si>
     <t>fid</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>Corps only</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -436,66 +421,9 @@
     <t>a-checks???</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>invoice</t>
-  </si>
-  <si>
     <t>fla/</t>
   </si>
   <si>
-    <t>expected result</t>
-  </si>
-  <si>
-    <t>fica ssa</t>
-  </si>
-  <si>
-    <t>fica med</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>fica medadd</t>
-  </si>
-  <si>
-    <t>state wk</t>
-  </si>
-  <si>
-    <t>state amt</t>
-  </si>
-  <si>
-    <t>state rs</t>
-  </si>
-  <si>
-    <t>city wk</t>
-  </si>
-  <si>
-    <t>city amt</t>
-  </si>
-  <si>
-    <t>city rs</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>ny</t>
-  </si>
-  <si>
-    <t>nj</t>
-  </si>
-  <si>
-    <t>ded</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
     <t>union maint</t>
   </si>
   <si>
@@ -605,6 +533,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>number1</t>
+  </si>
+  <si>
+    <t>numbers2</t>
+  </si>
+  <si>
+    <t>numbers3</t>
   </si>
 </sst>
 </file>
@@ -614,7 +551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,9 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
@@ -1051,13 +988,11 @@
     <col min="41" max="51" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56">
       <c r="A1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AO1" s="8"/>
       <c r="AP1" s="8"/>
       <c r="AQ1" s="8"/>
       <c r="AR1" s="8"/>
@@ -1068,173 +1003,171 @@
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
       <c r="AY1" s="8"/>
-      <c r="AZ1" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="AZ1" s="7"/>
       <c r="BA1" s="7"/>
       <c r="BB1" s="7"/>
       <c r="BC1" s="7"/>
       <c r="BD1" s="7"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG2" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AI2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AK2" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>29</v>
-      </c>
       <c r="AL2" s="4" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="AN2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AP2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AQ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" t="s">
         <v>99</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AX2" t="s">
         <v>100</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AY2" t="s">
         <v>101</v>
       </c>
-      <c r="AT2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>106</v>
-      </c>
       <c r="AZ2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
       <c r="A3">
         <v>69898</v>
       </c>
@@ -1242,64 +1175,64 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>2300001</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L3">
         <v>91504</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W3">
         <v>17</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
         <v>52</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>56</v>
-      </c>
       <c r="AD3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AF3">
         <v>3</v>
@@ -1311,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
       <c r="A4">
         <v>69898</v>
       </c>
@@ -1322,61 +1255,61 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>1100056</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L4">
         <v>91504</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W4">
         <v>17</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AD4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AF4">
         <v>3</v>
@@ -1388,22 +1321,22 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AK4">
         <v>3</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56">
       <c r="A5">
         <v>28520</v>
       </c>
@@ -1411,40 +1344,40 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>652521225</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>2901001</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L5">
         <v>91504</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1453,31 +1386,31 @@
         <v>5</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W5">
         <v>17</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AE5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF5">
         <v>3</v>
@@ -1489,43 +1422,43 @@
         <v>3</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AO5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AP5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AQ5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AR5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AS5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AT5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AU5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AV5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AW5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AX5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AY5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
       <c r="A6">
         <v>15970</v>
       </c>
@@ -1533,64 +1466,64 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>9400001</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L6">
         <v>91504</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W6">
         <v>17</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AD6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AF6">
         <v>3</v>
@@ -1602,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1615,72 +1548,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="10" width="8.83203125" style="1"/>
     <col min="13" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>37</v>
@@ -1704,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2">
         <v>42736</v>
@@ -1719,15 +1650,15 @@
         <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>61</v>
@@ -1751,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2">
         <v>42736</v>
@@ -1771,10 +1702,10 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -1783,63 +1714,63 @@
     <col min="18" max="18" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>69898</v>
       </c>
@@ -1847,25 +1778,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -1880,7 +1811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>69898</v>
       </c>
@@ -1888,25 +1819,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -1921,7 +1852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>28520</v>
       </c>
@@ -1929,25 +1860,25 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -1962,7 +1893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>15971</v>
       </c>
@@ -1970,25 +1901,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -2000,7 +1931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>69898</v>
       </c>
@@ -2008,25 +1939,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -2041,7 +1972,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>69898</v>
       </c>
@@ -2049,19 +1980,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2076,7 +2007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>69898</v>
       </c>
@@ -2084,19 +2015,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2111,7 +2042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>69898</v>
       </c>
@@ -2119,19 +2050,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2146,7 +2077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>69898</v>
       </c>
@@ -2154,19 +2085,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2181,7 +2112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>69898</v>
       </c>
@@ -2189,25 +2120,25 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -2219,7 +2150,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>69898</v>
       </c>
@@ -2227,19 +2158,19 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2251,7 +2182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>69898</v>
       </c>
@@ -2259,19 +2190,19 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2283,7 +2214,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>69898</v>
       </c>
@@ -2291,19 +2222,19 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2315,7 +2246,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>69898</v>
       </c>
@@ -2323,19 +2254,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2347,7 +2278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>28520</v>
       </c>
@@ -2355,25 +2286,25 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>68</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>72</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2385,7 +2316,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>28520</v>
       </c>
@@ -2393,19 +2324,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2417,7 +2348,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>28520</v>
       </c>
@@ -2425,19 +2356,19 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2449,7 +2380,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>15971</v>
       </c>
@@ -2457,28 +2388,28 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2490,7 +2421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>15971</v>
       </c>
@@ -2498,25 +2429,25 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P23">
         <v>861</v>
@@ -2525,7 +2456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>15971</v>
       </c>
@@ -2533,25 +2464,25 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P24">
         <v>110</v>
@@ -2563,7 +2494,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>15971</v>
       </c>
@@ -2571,25 +2502,25 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P25">
         <v>350</v>
@@ -2601,7 +2532,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>15971</v>
       </c>
@@ -2609,25 +2540,25 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P26">
         <v>360</v>
@@ -2639,7 +2570,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>15971</v>
       </c>
@@ -2647,25 +2578,25 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2680,32 +2611,32 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>69898</v>
       </c>
@@ -2713,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>28520</v>
       </c>
@@ -2727,13 +2658,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>15970</v>
       </c>
@@ -2741,27 +2672,27 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>76990</v>
       </c>
@@ -2769,19 +2700,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E6">
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>78277</v>
       </c>
@@ -2789,16 +2720,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>78294</v>
       </c>
@@ -2806,13 +2737,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>16041</v>
       </c>
@@ -2820,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>74546</v>
       </c>
@@ -2834,13 +2765,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>39503</v>
       </c>
@@ -2848,16 +2779,16 @@
         <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>16042</v>
       </c>
@@ -2865,13 +2796,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>75341</v>
       </c>
@@ -2879,151 +2810,277 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>126</v>
-      </c>
-      <c r="F13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D78DF9-34FD-8A40-87FA-65268C45DCA0}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="17" width="8.83203125" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>69898</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>28520</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>15970</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>76990</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>78277</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>78294</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>16041</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>74546</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>39503</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>16042</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>75341</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3031,12 +3088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView zoomScale="117" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="10" customWidth="1"/>
     <col min="8" max="18" width="3" customWidth="1"/>
     <col min="19" max="20" width="2.83203125" customWidth="1"/>
@@ -3044,113 +3102,113 @@
     <col min="22" max="29" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="16">
       <c r="G2" s="12" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="V2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="42">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M3" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="N3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>182</v>
-      </c>
       <c r="U3" s="9" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>69898</v>
       </c>
@@ -3158,22 +3216,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>69898</v>
       </c>
@@ -3181,22 +3239,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>28520</v>
       </c>
@@ -3204,22 +3262,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>15970</v>
       </c>
@@ -3227,22 +3285,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>69898</v>
       </c>
@@ -3250,19 +3308,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>69898</v>
       </c>
@@ -3270,19 +3328,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>28520</v>
       </c>
@@ -3290,19 +3348,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>15970</v>
       </c>
@@ -3310,16 +3368,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
